--- a/DB/Lista de movimientos.xlsx
+++ b/DB/Lista de movimientos.xlsx
@@ -1759,10 +1759,10 @@
   <dimension ref="A1:AC373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q317" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A348" sqref="A348:XFD348"/>
+      <selection pane="bottomRight" activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
